--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>revenue</t>
   </si>
@@ -58,7 +58,37 @@
     <t>dividends</t>
   </si>
   <si>
+    <t>receivables</t>
+  </si>
+  <si>
+    <t>payables</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>st investments</t>
+  </si>
+  <si>
+    <t>st debt</t>
+  </si>
+  <si>
+    <t>lt debt</t>
+  </si>
+  <si>
+    <t>leasing</t>
+  </si>
+  <si>
     <t>CY</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
   <si>
     <t>2017</t>
@@ -437,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -489,334 +519,668 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2">
+        <v>4795511000</v>
+      </c>
+      <c r="C2">
+        <v>744317000</v>
+      </c>
+      <c r="D2">
+        <v>2215161000</v>
+      </c>
+      <c r="E2">
+        <v>339473000</v>
+      </c>
+      <c r="F2">
+        <v>862730000</v>
+      </c>
+      <c r="G2">
+        <v>-184936000</v>
+      </c>
+      <c r="H2">
+        <v>244230000</v>
+      </c>
+      <c r="I2">
+        <v>28759000</v>
+      </c>
+      <c r="J2">
+        <v>64184000</v>
+      </c>
+      <c r="K2">
+        <v>4821892000</v>
+      </c>
+      <c r="L2">
+        <v>2213556000</v>
+      </c>
+      <c r="M2">
+        <v>195264000</v>
+      </c>
+      <c r="N2">
+        <v>-625000000</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>672006000</v>
+      </c>
+      <c r="Q2">
+        <v>93307000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>876560000</v>
+      </c>
+      <c r="T2">
+        <v>3111524000</v>
+      </c>
+      <c r="U2">
+        <v>34161000</v>
+      </c>
+      <c r="V2">
+        <v>1907231000</v>
+      </c>
+      <c r="W2">
+        <v>1907231000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>5854430000</v>
+      </c>
+      <c r="C3">
+        <v>819908000</v>
+      </c>
+      <c r="D3">
+        <v>2487907000</v>
+      </c>
+      <c r="E3">
+        <v>331535000</v>
+      </c>
+      <c r="F3">
+        <v>975987000</v>
+      </c>
+      <c r="G3">
+        <v>-203805000</v>
+      </c>
+      <c r="H3">
+        <v>266356000</v>
+      </c>
+      <c r="I3">
+        <v>47340000</v>
+      </c>
+      <c r="J3">
+        <v>70442000</v>
+      </c>
+      <c r="K3">
+        <v>5839774000</v>
+      </c>
+      <c r="L3">
+        <v>2811635000</v>
+      </c>
+      <c r="M3">
+        <v>346357000</v>
+      </c>
+      <c r="N3">
+        <v>-1075000000</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>833033000</v>
+      </c>
+      <c r="Q3">
+        <v>88024000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1011315000</v>
+      </c>
+      <c r="T3">
+        <v>3749985000</v>
+      </c>
+      <c r="U3">
+        <v>81475000</v>
+      </c>
+      <c r="V3">
+        <v>1902068000</v>
+      </c>
+      <c r="W3">
+        <v>1902068000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>7301505000</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>1010491000</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>2822298000</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>325997000</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>1224059000</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>-178122000</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>443687000</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>66069000</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>74402000</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>7247813000</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>3527457000</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>446945000</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <v>-1100000000</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1217968000</v>
+      </c>
+      <c r="Q4">
+        <v>113538000</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2306072000</v>
+      </c>
+      <c r="T4">
+        <v>3513702000</v>
+      </c>
+      <c r="U4">
+        <v>63746000</v>
+      </c>
+      <c r="V4">
+        <v>1881421000</v>
+      </c>
+      <c r="W4">
+        <v>1881421000</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
         <v>9030008000</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>1194999000</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>3365727000</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>346492000</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>1537812000</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>-266579000</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>203102000</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>92540000</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>89242000</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>4857039000</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>4301126000</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <v>487775000</v>
       </c>
-      <c r="N3">
+      <c r="N5">
         <v>-2050000000</v>
       </c>
-      <c r="O3">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1315578000</v>
+      </c>
+      <c r="Q5">
+        <v>186258000</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1642775000</v>
+      </c>
+      <c r="T5">
+        <v>1586187000</v>
+      </c>
+      <c r="U5">
+        <v>93234000</v>
+      </c>
+      <c r="V5">
+        <v>4124800000</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>11171297000</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>1672720000</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>4124984000</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>736669000</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>1930228000</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>-333981000</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>253283000</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>42255000</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>157214000</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>6494925000</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>8190938000</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>105028000</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>-2750000000</v>
       </c>
-      <c r="O4">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1534809000</v>
+      </c>
+      <c r="Q6">
+        <v>209499000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2650221000</v>
+      </c>
+      <c r="T6">
+        <v>1526755000</v>
+      </c>
+      <c r="U6">
+        <v>3149343000</v>
+      </c>
+      <c r="V6">
+        <v>988924000</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
         <v>12868000000</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>1722000000</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>4559000000</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>844000000</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>2188000000</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>-419000000</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>-1084000000</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>43000000</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>116000000</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>8146000000</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>5512000000</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>186000000</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>-3050000000</v>
       </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1398000000</v>
+      </c>
+      <c r="Q7">
+        <v>306000000</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4478000000</v>
+      </c>
+      <c r="T7">
+        <v>1514000000</v>
+      </c>
+      <c r="U7">
+        <v>92000000</v>
+      </c>
+      <c r="V7">
+        <v>4616000000</v>
+      </c>
+      <c r="W7">
+        <v>591000000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
         <v>15785000000</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1865000000</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>5406000000</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>861000000</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>2540000000</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>-330000000</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>883000000</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>17000000</v>
-      </c>
-      <c r="J6">
-        <v>113000000</v>
-      </c>
-      <c r="K6">
-        <v>8651000000</v>
-      </c>
-      <c r="L6">
-        <v>6932000000</v>
-      </c>
-      <c r="M6">
-        <v>285000000</v>
-      </c>
-      <c r="N6">
-        <v>-3950000000</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>17606000000</v>
-      </c>
-      <c r="C7">
-        <v>2165000000</v>
-      </c>
-      <c r="D7">
-        <v>6187000000</v>
-      </c>
-      <c r="E7">
-        <v>939000000</v>
-      </c>
-      <c r="F7">
-        <v>2987000000</v>
-      </c>
-      <c r="G7">
-        <v>-442000000</v>
-      </c>
-      <c r="H7">
-        <v>1252000000</v>
-      </c>
-      <c r="I7">
-        <v>61000000</v>
-      </c>
-      <c r="J7">
-        <v>112000000</v>
-      </c>
-      <c r="K7">
-        <v>8996000000</v>
-      </c>
-      <c r="L7">
-        <v>8128000000</v>
-      </c>
-      <c r="M7">
-        <v>336000000</v>
-      </c>
-      <c r="N7">
-        <v>-7068000000</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>19409000000</v>
-      </c>
-      <c r="C8">
-        <v>2354000000</v>
-      </c>
-      <c r="D8">
-        <v>6764000000</v>
-      </c>
-      <c r="E8">
-        <v>944000000</v>
-      </c>
-      <c r="F8">
-        <v>3473000000</v>
-      </c>
-      <c r="G8">
-        <v>-360000000</v>
-      </c>
-      <c r="H8">
-        <v>1371000000</v>
-      </c>
-      <c r="I8">
-        <v>269000000</v>
       </c>
       <c r="J8">
         <v>113000000</v>
       </c>
       <c r="K8">
+        <v>8651000000</v>
+      </c>
+      <c r="L8">
+        <v>6932000000</v>
+      </c>
+      <c r="M8">
+        <v>285000000</v>
+      </c>
+      <c r="N8">
+        <v>-3950000000</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1878000000</v>
+      </c>
+      <c r="Q8">
+        <v>312000000</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>3844000000</v>
+      </c>
+      <c r="T8">
+        <v>1954000000</v>
+      </c>
+      <c r="U8">
+        <v>97000000</v>
+      </c>
+      <c r="V8">
+        <v>4576000000</v>
+      </c>
+      <c r="W8">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>17606000000</v>
+      </c>
+      <c r="C9">
+        <v>2165000000</v>
+      </c>
+      <c r="D9">
+        <v>6187000000</v>
+      </c>
+      <c r="E9">
+        <v>939000000</v>
+      </c>
+      <c r="F9">
+        <v>2987000000</v>
+      </c>
+      <c r="G9">
+        <v>-442000000</v>
+      </c>
+      <c r="H9">
+        <v>1252000000</v>
+      </c>
+      <c r="I9">
+        <v>61000000</v>
+      </c>
+      <c r="J9">
+        <v>112000000</v>
+      </c>
+      <c r="K9">
+        <v>8996000000</v>
+      </c>
+      <c r="L9">
+        <v>8128000000</v>
+      </c>
+      <c r="M9">
+        <v>336000000</v>
+      </c>
+      <c r="N9">
+        <v>-7068000000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2065000000</v>
+      </c>
+      <c r="Q9">
+        <v>379000000</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>4236000000</v>
+      </c>
+      <c r="T9">
+        <v>1860000000</v>
+      </c>
+      <c r="U9">
+        <v>587000000</v>
+      </c>
+      <c r="V9">
+        <v>4046000000</v>
+      </c>
+      <c r="W9">
+        <v>504000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>19409000000</v>
+      </c>
+      <c r="C10">
+        <v>2354000000</v>
+      </c>
+      <c r="D10">
+        <v>6764000000</v>
+      </c>
+      <c r="E10">
+        <v>944000000</v>
+      </c>
+      <c r="F10">
+        <v>3473000000</v>
+      </c>
+      <c r="G10">
+        <v>-360000000</v>
+      </c>
+      <c r="H10">
+        <v>1371000000</v>
+      </c>
+      <c r="I10">
+        <v>269000000</v>
+      </c>
+      <c r="J10">
+        <v>113000000</v>
+      </c>
+      <c r="K10">
         <v>11084000000</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>8251000000</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>-355000000</v>
       </c>
-      <c r="N8">
+      <c r="N10">
         <v>-4400000000</v>
       </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2224000000</v>
+      </c>
+      <c r="Q10">
+        <v>314000000</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>7141000000</v>
+      </c>
+      <c r="T10">
+        <v>701000000</v>
+      </c>
+      <c r="U10">
+        <v>73000000</v>
+      </c>
+      <c r="V10">
+        <v>4007000000</v>
+      </c>
+      <c r="W10">
+        <v>446000000</v>
       </c>
     </row>
   </sheetData>
